--- a/interest/comic.xlsx
+++ b/interest/comic.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="491">
   <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1528,6 +1528,628 @@
     <t>女生爱女生</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>只要你说你爱我</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恋爱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我女友与青梅竹马的惨烈修罗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双恋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>琴浦小姐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神薙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>愿此刻永恒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔界战记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔幻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科幻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>神样</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>dolls</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在盛夏等待</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搞笑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银之匙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搞笑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青春之旅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大神与七位伙伴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>魔笛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>migic</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樱花庄的宠物女孩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>染色的街道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ISUCA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>依思卡</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们仍未知道那天所看见的花的名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可塑性记忆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻声密语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏雪密会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浪漫追星社</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柔道少女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我被绑架到贵族女校当庶民样本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨兵长城传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔发奇缘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜剧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂动物城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜剧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杀戮天使</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种菜女神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖神记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名侦探柯南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王牌御史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万古仙穹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七龙珠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王牌对王牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斗罗大陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万界神主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博人传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺客伍六七</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵剑尊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海贼王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百炼成神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣诞大赢家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三小强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无敌小飞猪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精灵女孩小卓玛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神兵小将</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神兵小将</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔幻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神殿侠侣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武侠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>情女幽魂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惊悚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神殿侠侣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江湖告急</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经典</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画皮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惊悚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芳香之城传奇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魁拔之十万火急</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙之谷：破晓奇兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇幻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大鱼海棠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三角恋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器人总动员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗恋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑暗之光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驯龙高手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜剧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔侠传奇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天眼传奇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青蛙总动员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>儿童</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新东方神娃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萤火奇兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搞笑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘻游记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美人鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新大头儿子和小头爸爸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超能龙骑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辛巴达与美人鱼公主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功夫四侠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封神传奇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里巴巴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火鸡总动员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂原始人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画壁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱恋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海鲜陆战队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨额交易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一滴血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藏獒多吉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>励志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻龙诀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔侠传之堂吉诃德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四大名铺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄崛起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>言叶之庭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恋爱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功夫熊猫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇门遁甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少侠好功夫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>济公之降龙有悔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄幻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快把我哥带走</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死侍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不良千金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰雪奇缘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歌舞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九品芝麻官</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长发公主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1557,13 +2179,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="9"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -1578,6 +2193,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="6"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -1604,7 +2226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1618,20 +2240,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1927,10 +2552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J150"/>
+  <dimension ref="A1:J192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="E144" sqref="E144"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="D192" sqref="D192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1941,16 +2566,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="3"/>
@@ -2090,7 +2715,7 @@
       <c r="C8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E8" s="3"/>
@@ -2941,100 +3566,100 @@
       <c r="J50" s="3"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D51" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D53" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D54" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D55" s="6" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D56" s="6" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="D57" s="6" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3042,223 +3667,223 @@
       <c r="A58" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D58" s="6" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="D59" s="6" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="D60" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="8" t="s">
+      <c r="A61" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D61" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="7" t="s">
+      <c r="A62" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="D62" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="7" t="s">
+      <c r="A63" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="D63" s="6" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="7" t="s">
+      <c r="A64" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="D64" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="7" t="s">
+      <c r="A65" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="D65" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="7" t="s">
+      <c r="A66" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D66" s="7" t="s">
+      <c r="D66" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="7" t="s">
+      <c r="A67" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C67" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D67" s="7" t="s">
+      <c r="D67" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="7" t="s">
+      <c r="A68" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C68" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D68" s="7" t="s">
+      <c r="D68" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="7" t="s">
+      <c r="A69" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D69" s="7" t="s">
+      <c r="D69" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="7" t="s">
+      <c r="A70" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C70" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D70" s="7" t="s">
+      <c r="D70" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="7" t="s">
+      <c r="A71" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C71" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D71" s="7" t="s">
+      <c r="D71" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="7" t="s">
+      <c r="A72" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C72" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D72" s="7" t="s">
+      <c r="D72" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="7" t="s">
+      <c r="A73" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D73" s="7" t="s">
+      <c r="D73" s="6" t="s">
         <v>197</v>
       </c>
     </row>
@@ -3266,111 +3891,111 @@
       <c r="A74" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C74" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D74" s="7" t="s">
+      <c r="D74" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="7" t="s">
+      <c r="A75" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C75" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D75" s="7" t="s">
+      <c r="D75" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="7" t="s">
+      <c r="A76" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C76" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D76" s="7" t="s">
+      <c r="D76" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="7" t="s">
+      <c r="A77" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C77" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D77" s="7" t="s">
+      <c r="D77" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="7" t="s">
+      <c r="A78" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C78" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D78" s="7" t="s">
+      <c r="D78" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="7" t="s">
+      <c r="A79" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B79" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C79" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="D79" s="7" t="s">
+      <c r="D79" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="7" t="s">
+      <c r="A80" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B80" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C80" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D80" s="7" t="s">
+      <c r="D80" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="7" t="s">
+      <c r="A81" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B81" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C81" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D81" s="7" t="s">
+      <c r="D81" s="6" t="s">
         <v>197</v>
       </c>
     </row>
@@ -3378,83 +4003,83 @@
       <c r="A82" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B82" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="C82" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D82" s="7" t="s">
+      <c r="D82" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="7" t="s">
+      <c r="A83" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="B83" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="C83" s="7" t="s">
+      <c r="C83" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="D83" s="7" t="s">
+      <c r="D83" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="7" t="s">
+      <c r="A84" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="B84" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C84" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D84" s="7" t="s">
+      <c r="D84" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="7" t="s">
+      <c r="A85" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="B85" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C85" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D85" s="7" t="s">
+      <c r="D85" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="7" t="s">
+      <c r="A86" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="B86" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="C86" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D86" s="7" t="s">
+      <c r="D86" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="7" t="s">
+      <c r="A87" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="B87" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C87" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D87" s="7" t="s">
+      <c r="D87" s="6" t="s">
         <v>197</v>
       </c>
     </row>
@@ -3462,321 +4087,321 @@
       <c r="A88" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B88" s="7" t="s">
+      <c r="B88" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C88" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D88" s="7" t="s">
+      <c r="D88" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="7" t="s">
+      <c r="A89" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="B89" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="C89" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="D89" s="7" t="s">
+      <c r="D89" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="7" t="s">
+      <c r="A90" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="B90" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="C90" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D90" s="7" t="s">
+      <c r="D90" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="7" t="s">
+      <c r="A91" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="B91" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="C91" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D91" s="7" t="s">
+      <c r="D91" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="7" t="s">
+      <c r="A92" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="B92" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="C92" s="7" t="s">
+      <c r="C92" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="D92" s="7" t="s">
+      <c r="D92" s="6" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="7" t="s">
+      <c r="A93" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="B93" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="C93" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D93" s="7" t="s">
+      <c r="D93" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="7" t="s">
+      <c r="A94" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="B94" s="7" t="s">
+      <c r="B94" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C94" s="7" t="s">
+      <c r="C94" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D94" s="7" t="s">
+      <c r="D94" s="6" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="7" t="s">
+      <c r="A95" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="B95" s="7" t="s">
+      <c r="B95" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C95" s="7" t="s">
+      <c r="C95" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D95" s="7" t="s">
+      <c r="D95" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="7" t="s">
+      <c r="A96" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="B96" s="7" t="s">
+      <c r="B96" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C96" s="7" t="s">
+      <c r="C96" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="D96" s="7" t="s">
+      <c r="D96" s="6" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="7" t="s">
+      <c r="A97" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="B97" s="7" t="s">
+      <c r="B97" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="C97" s="7" t="s">
+      <c r="C97" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D97" s="7" t="s">
+      <c r="D97" s="6" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="9" t="s">
+      <c r="A98" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="B98" s="7" t="s">
+      <c r="B98" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="C98" s="7" t="s">
+      <c r="C98" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D98" s="7" t="s">
+      <c r="D98" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="7" t="s">
+      <c r="A99" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="B99" s="7" t="s">
+      <c r="B99" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C99" s="7" t="s">
+      <c r="C99" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D99" s="7" t="s">
+      <c r="D99" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="7" t="s">
+      <c r="A100" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="B100" s="7" t="s">
+      <c r="B100" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C100" s="7" t="s">
+      <c r="C100" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D100" s="7" t="s">
+      <c r="D100" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="7" t="s">
+      <c r="A101" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="B101" s="7" t="s">
+      <c r="B101" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="C101" s="7" t="s">
+      <c r="C101" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D101" s="7" t="s">
+      <c r="D101" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="7" t="s">
+      <c r="A102" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="B102" s="7" t="s">
+      <c r="B102" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C102" s="7" t="s">
+      <c r="C102" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D102" s="7" t="s">
+      <c r="D102" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="7" t="s">
+      <c r="A103" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="B103" s="7" t="s">
+      <c r="B103" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C103" s="7" t="s">
+      <c r="C103" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="D103" s="7" t="s">
+      <c r="D103" s="6" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="7" t="s">
+      <c r="A104" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="B104" s="7" t="s">
+      <c r="B104" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C104" s="7" t="s">
+      <c r="C104" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="D104" s="7" t="s">
+      <c r="D104" s="6" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="7" t="s">
+      <c r="A105" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="B105" s="7" t="s">
+      <c r="B105" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="C105" s="7" t="s">
+      <c r="C105" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D105" s="7" t="s">
+      <c r="D105" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="7" t="s">
+      <c r="A106" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="B106" s="7" t="s">
+      <c r="B106" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="C106" s="7" t="s">
+      <c r="C106" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D106" s="7" t="s">
+      <c r="D106" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="7" t="s">
+      <c r="A107" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="B107" s="7" t="s">
+      <c r="B107" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C107" s="7" t="s">
+      <c r="C107" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="D107" s="7" t="s">
+      <c r="D107" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="7" t="s">
+      <c r="A108" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="B108" s="7" t="s">
+      <c r="B108" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C108" s="7" t="s">
+      <c r="C108" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="D108" s="7" t="s">
+      <c r="D108" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="7" t="s">
+      <c r="A109" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="B109" s="7" t="s">
+      <c r="B109" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="C109" s="7" t="s">
+      <c r="C109" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D109" s="7" t="s">
+      <c r="D109" s="6" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="7" t="s">
+      <c r="A110" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="B110" s="7" t="s">
+      <c r="B110" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="C110" s="7" t="s">
+      <c r="C110" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D110" s="7" t="s">
+      <c r="D110" s="6" t="s">
         <v>197</v>
       </c>
     </row>
@@ -3784,139 +4409,139 @@
       <c r="A111" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B111" s="7" t="s">
+      <c r="B111" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C111" s="7" t="s">
+      <c r="C111" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D111" s="7" t="s">
+      <c r="D111" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="8" t="s">
+      <c r="A112" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="B112" s="7" t="s">
+      <c r="B112" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="C112" s="7" t="s">
+      <c r="C112" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="D112" s="7" t="s">
+      <c r="D112" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="113" spans="1:4">
-      <c r="A113" s="7" t="s">
+      <c r="A113" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="B113" s="7" t="s">
+      <c r="B113" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C113" s="7" t="s">
+      <c r="C113" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D113" s="7" t="s">
+      <c r="D113" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="7" t="s">
+      <c r="A114" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="B114" s="7" t="s">
+      <c r="B114" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C114" s="7" t="s">
+      <c r="C114" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="D114" s="7" t="s">
+      <c r="D114" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="115" spans="1:4">
-      <c r="A115" s="7" t="s">
+      <c r="A115" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="B115" s="7" t="s">
+      <c r="B115" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="C115" s="7" t="s">
+      <c r="C115" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D115" s="7" t="s">
+      <c r="D115" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="116" spans="1:4">
-      <c r="A116" s="7" t="s">
+      <c r="A116" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="B116" s="7" t="s">
+      <c r="B116" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C116" s="7" t="s">
+      <c r="C116" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="D116" s="7" t="s">
+      <c r="D116" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="117" spans="1:4">
-      <c r="A117" s="7" t="s">
+      <c r="A117" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="B117" s="7" t="s">
+      <c r="B117" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C117" s="7" t="s">
+      <c r="C117" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D117" s="7" t="s">
+      <c r="D117" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="7" t="s">
+      <c r="A118" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="B118" s="7" t="s">
+      <c r="B118" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="C118" s="7" t="s">
+      <c r="C118" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="D118" s="7" t="s">
+      <c r="D118" s="6" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="119" spans="1:4">
-      <c r="A119" s="7" t="s">
+      <c r="A119" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="B119" s="7" t="s">
+      <c r="B119" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="C119" s="7" t="s">
+      <c r="C119" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="D119" s="7" t="s">
+      <c r="D119" s="6" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="120" spans="1:4">
-      <c r="A120" s="7" t="s">
+      <c r="A120" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="B120" s="7" t="s">
+      <c r="B120" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C120" s="7" t="s">
+      <c r="C120" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="D120" s="7" t="s">
+      <c r="D120" s="6" t="s">
         <v>245</v>
       </c>
     </row>
@@ -3924,377 +4549,377 @@
       <c r="A121" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B121" s="7" t="s">
+      <c r="B121" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="C121" s="7" t="s">
+      <c r="C121" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="D121" s="7" t="s">
+      <c r="D121" s="6" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="122" spans="1:4">
-      <c r="A122" s="7" t="s">
+      <c r="A122" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="B122" s="7" t="s">
+      <c r="B122" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="C122" s="7" t="s">
+      <c r="C122" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="D122" s="7" t="s">
+      <c r="D122" s="6" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="123" spans="1:4">
-      <c r="A123" s="7" t="s">
+      <c r="A123" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="B123" s="7" t="s">
+      <c r="B123" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="C123" s="7" t="s">
+      <c r="C123" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="D123" s="7" t="s">
+      <c r="D123" s="6" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="124" spans="1:4">
-      <c r="A124" s="7" t="s">
+      <c r="A124" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="B124" s="7" t="s">
+      <c r="B124" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="C124" s="7" t="s">
+      <c r="C124" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="D124" s="7" t="s">
+      <c r="D124" s="6" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="7" t="s">
+      <c r="A125" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="B125" s="7" t="s">
+      <c r="B125" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="C125" s="7" t="s">
+      <c r="C125" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="D125" s="7" t="s">
+      <c r="D125" s="6" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="126" spans="1:4">
-      <c r="A126" s="7" t="s">
+      <c r="A126" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="B126" s="7" t="s">
+      <c r="B126" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="C126" s="7" t="s">
+      <c r="C126" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="D126" s="7" t="s">
+      <c r="D126" s="6" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="127" spans="1:4">
-      <c r="A127" s="7" t="s">
+      <c r="A127" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="B127" s="7" t="s">
+      <c r="B127" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="C127" s="7" t="s">
+      <c r="C127" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="D127" s="7" t="s">
+      <c r="D127" s="6" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="128" spans="1:4">
-      <c r="A128" s="7" t="s">
+      <c r="A128" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="B128" s="7" t="s">
+      <c r="B128" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="C128" s="7" t="s">
+      <c r="C128" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="D128" s="7" t="s">
+      <c r="D128" s="6" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="129" spans="1:4">
-      <c r="A129" s="7" t="s">
+      <c r="A129" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="B129" s="7" t="s">
+      <c r="B129" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="C129" s="7" t="s">
+      <c r="C129" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="D129" s="7" t="s">
+      <c r="D129" s="6" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="130" spans="1:4">
-      <c r="A130" s="7" t="s">
+      <c r="A130" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="B130" s="7" t="s">
+      <c r="B130" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="C130" s="7" t="s">
+      <c r="C130" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="D130" s="7" t="s">
+      <c r="D130" s="6" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" s="7" t="s">
+      <c r="A131" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="B131" s="7" t="s">
+      <c r="B131" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="C131" s="7" t="s">
+      <c r="C131" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="D131" s="7" t="s">
+      <c r="D131" s="6" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="132" spans="1:4">
-      <c r="A132" s="7" t="s">
+      <c r="A132" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="B132" s="7" t="s">
+      <c r="B132" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="C132" s="7" t="s">
+      <c r="C132" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="D132" s="7" t="s">
+      <c r="D132" s="6" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="133" spans="1:4">
-      <c r="A133" s="7" t="s">
+      <c r="A133" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="B133" s="7" t="s">
+      <c r="B133" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="C133" s="7" t="s">
+      <c r="C133" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="D133" s="7" t="s">
+      <c r="D133" s="6" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="134" spans="1:4">
-      <c r="A134" s="7" t="s">
+      <c r="A134" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="B134" s="7" t="s">
+      <c r="B134" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="C134" s="7" t="s">
+      <c r="C134" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="D134" s="7" t="s">
+      <c r="D134" s="6" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="135" spans="1:4">
-      <c r="A135" s="7" t="s">
+      <c r="A135" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="B135" s="7" t="s">
+      <c r="B135" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="C135" s="7" t="s">
+      <c r="C135" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="D135" s="7" t="s">
+      <c r="D135" s="6" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="136" spans="1:4">
-      <c r="A136" s="7" t="s">
+      <c r="A136" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="B136" s="7" t="s">
+      <c r="B136" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="C136" s="7" t="s">
+      <c r="C136" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="D136" s="7" t="s">
+      <c r="D136" s="6" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="137" spans="1:4">
-      <c r="A137" s="7" t="s">
+      <c r="A137" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="B137" s="7" t="s">
+      <c r="B137" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="C137" s="7" t="s">
+      <c r="C137" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="D137" s="7" t="s">
+      <c r="D137" s="6" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="138" spans="1:4">
-      <c r="A138" s="7" t="s">
+      <c r="A138" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="B138" s="7" t="s">
+      <c r="B138" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="C138" s="7" t="s">
+      <c r="C138" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="D138" s="7" t="s">
+      <c r="D138" s="6" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="139" spans="1:4">
-      <c r="A139" s="7" t="s">
+      <c r="A139" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="B139" s="7" t="s">
+      <c r="B139" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="C139" s="7" t="s">
+      <c r="C139" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="D139" s="7" t="s">
+      <c r="D139" s="6" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="140" spans="1:4">
-      <c r="A140" s="7" t="s">
+      <c r="A140" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="B140" s="7" t="s">
+      <c r="B140" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="C140" s="7" t="s">
+      <c r="C140" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="D140" s="7" t="s">
+      <c r="D140" s="6" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="141" spans="1:4">
-      <c r="A141" s="7" t="s">
+      <c r="A141" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="B141" s="7" t="s">
+      <c r="B141" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="C141" s="7" t="s">
+      <c r="C141" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="D141" s="7" t="s">
+      <c r="D141" s="6" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="142" spans="1:4">
-      <c r="A142" s="7" t="s">
+      <c r="A142" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="B142" s="7" t="s">
+      <c r="B142" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="C142" s="7" t="s">
+      <c r="C142" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="D142" s="7" t="s">
+      <c r="D142" s="6" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="143" spans="1:4">
-      <c r="A143" s="7" t="s">
+      <c r="A143" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="B143" s="7" t="s">
+      <c r="B143" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="C143" s="7" t="s">
+      <c r="C143" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="D143" s="7" t="s">
+      <c r="D143" s="6" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="144" spans="1:4">
-      <c r="A144" s="7" t="s">
+      <c r="A144" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="B144" s="7" t="s">
+      <c r="B144" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="C144" s="7" t="s">
+      <c r="C144" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="D144" s="7" t="s">
+      <c r="D144" s="6" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="145" spans="1:4">
-      <c r="A145" s="7" t="s">
+      <c r="A145" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="B145" s="7" t="s">
+      <c r="B145" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="C145" s="7" t="s">
+      <c r="C145" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="D145" s="7" t="s">
+      <c r="D145" s="6" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="146" spans="1:4">
-      <c r="A146" s="7" t="s">
+      <c r="A146" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="B146" s="7" t="s">
+      <c r="B146" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="C146" s="7" t="s">
+      <c r="C146" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="D146" s="7" t="s">
+      <c r="D146" s="6" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="147" spans="1:4">
-      <c r="A147" s="7" t="s">
+      <c r="A147" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="B147" s="7" t="s">
+      <c r="B147" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="C147" s="7" t="s">
+      <c r="C147" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="D147" s="7" t="s">
+      <c r="D147" s="6" t="s">
         <v>335</v>
       </c>
     </row>
@@ -4302,42 +4927,630 @@
       <c r="A148" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B148" s="7" t="s">
+      <c r="B148" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="C148" s="7" t="s">
+      <c r="C148" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="D148" s="7" t="s">
+      <c r="D148" s="6" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="149" spans="1:4">
-      <c r="A149" s="7" t="s">
+      <c r="A149" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="B149" s="7" t="s">
+      <c r="B149" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="C149" s="7" t="s">
+      <c r="C149" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="D149" s="7" t="s">
+      <c r="D149" s="6" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="150" spans="1:4">
-      <c r="A150" s="7" t="s">
+      <c r="A150" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="B150" s="7" t="s">
+      <c r="B150" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="C150" s="7" t="s">
+      <c r="C150" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="D150" s="7" t="s">
+      <c r="D150" s="6" t="s">
         <v>335</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D151" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D152" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D153" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D154" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D155" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D156" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="B157" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D157" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D158" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D159" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D160" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D161" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D162" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B163" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D164" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D165" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B166" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D166" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D167" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="B168" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D168" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="B169" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D169" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="B170" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D170" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="B171" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D171" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="B172" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D172" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="B173" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D173" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="B174" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D174" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="B175" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="D175" s="6" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="B176" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D176" s="6" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="B177" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D177" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="B178" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D178" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="B179" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D179" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="B180" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D180" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="B181" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D181" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="B182" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D182" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="B183" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D183" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="B184" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="C184" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D184" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="B185" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="C185" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D185" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="B186" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="C186" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D186" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="B187" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="C187" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D187" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="B188" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="C188" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D188" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="B189" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="C189" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="D189" s="6" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="B190" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="C190" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="D190" s="6" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="B191" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="C191" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="D191" s="6" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="B192" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="D192" s="6" t="s">
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -4352,10 +5565,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J77"/>
+  <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4366,16 +5579,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="3"/>
@@ -4515,7 +5728,7 @@
       <c r="C8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E8" s="3"/>
@@ -5366,381 +6579,437 @@
       <c r="J50" s="3"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D51" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D53" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D54" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D55" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D56" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="D57" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D58" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="D59" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="D60" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D61" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="7" t="s">
+      <c r="A62" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="D62" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="7" t="s">
+      <c r="A63" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="D63" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="7" t="s">
+      <c r="A64" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="D64" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="7" t="s">
+      <c r="A65" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="D65" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="7" t="s">
+      <c r="A66" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D66" s="7" t="s">
+      <c r="D66" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="7" t="s">
+      <c r="A67" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C67" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D67" s="7" t="s">
+      <c r="D67" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="7" t="s">
+      <c r="A68" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C68" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D68" s="7" t="s">
+      <c r="D68" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="7" t="s">
+      <c r="A69" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D69" s="7" t="s">
+      <c r="D69" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="7" t="s">
+      <c r="A70" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C70" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D70" s="7" t="s">
+      <c r="D70" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="7" t="s">
+      <c r="A71" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C71" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D71" s="7" t="s">
+      <c r="D71" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="7" t="s">
+      <c r="A72" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C72" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D72" s="7" t="s">
+      <c r="D72" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="7" t="s">
+      <c r="A73" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="D73" s="7" t="s">
+      <c r="D73" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="7" t="s">
+      <c r="A74" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C74" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="D74" s="7" t="s">
+      <c r="D74" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="7" t="s">
+      <c r="A75" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C75" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="D75" s="7" t="s">
+      <c r="D75" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="7" t="s">
+      <c r="A76" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C76" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="D76" s="7" t="s">
+      <c r="D76" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="7" t="s">
+      <c r="A77" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C77" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="D77" s="7" t="s">
+      <c r="D77" s="6" t="s">
         <v>283</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -5751,659 +7020,894 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="10" width="20.625" style="1" customWidth="1"/>
-    <col min="11" max="26" width="9" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="9" style="1"/>
+    <col min="1" max="9" width="20.625" style="1" customWidth="1"/>
+    <col min="10" max="25" width="9" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="2"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="2" t="s">
+        <v>389</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>390</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="2"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2" t="s">
+        <v>409</v>
+      </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>386</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="2"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="2" t="s">
+        <v>410</v>
+      </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="2"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="2" t="s">
+        <v>411</v>
+      </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>162</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="2"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="2" t="s">
+        <v>412</v>
+      </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>199</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>416</v>
+      </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>416</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>416</v>
+      </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>416</v>
+      </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>416</v>
+      </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>416</v>
+      </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>416</v>
+      </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>416</v>
+      </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>438</v>
+      </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>416</v>
+      </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>438</v>
+      </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>443</v>
+      </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>416</v>
+      </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>416</v>
+      </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>443</v>
+      </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>416</v>
+      </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>416</v>
+      </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>443</v>
+      </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>416</v>
+      </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>416</v>
+      </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>416</v>
+      </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>416</v>
+      </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>416</v>
+      </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>438</v>
+      </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>438</v>
+      </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>416</v>
+      </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>416</v>
+      </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>416</v>
+      </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>438</v>
+      </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>416</v>
+      </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>416</v>
+      </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>416</v>
+      </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>416</v>
+      </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>416</v>
+      </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>477</v>
+      </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>479</v>
+      </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>416</v>
+      </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>416</v>
+      </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>416</v>
+      </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>416</v>
+      </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>438</v>
+      </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>416</v>
+      </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>438</v>
+      </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>438</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/interest/comic.xlsx
+++ b/interest/comic.xlsx
@@ -10,16 +10,18 @@
     <sheet name="动漫" sheetId="1" r:id="rId1"/>
     <sheet name="电视剧" sheetId="2" r:id="rId2"/>
     <sheet name="电影" sheetId="3" r:id="rId3"/>
+    <sheet name="应用" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">动漫!$B$1:$D$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">应用!$C$1:$C$5</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="542">
   <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2150,12 +2152,228 @@
     <t>长发公主</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>变形金刚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惊悚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妈咪快跑：爹地追来了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恋爱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银之守墓人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我不是教主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搞笑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拯救世界吧叔叔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大天蓬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔幻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天开始做明星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偶像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百夜玲珑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙王的日常生活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇幻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全职法师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度网盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定的手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1456300078/2693280934/2523701268</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Life1372571</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>QQ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮箱</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷狗音乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音乐软件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1456300078@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊天社交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美团外卖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居家生活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子商务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理财</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2205,6 +2423,27 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2223,10 +2462,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2258,9 +2501,31 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2552,10 +2817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J192"/>
+  <dimension ref="A1:J203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="D192" sqref="D192"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4640,7 +4905,7 @@
         <v>298</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>286</v>
+        <v>229</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -5551,6 +5816,160 @@
       </c>
       <c r="D192" s="6" t="s">
         <v>417</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="B193" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="C193" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="D193" s="6" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="B194" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="C194" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="D194" s="6" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="B195" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="C195" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="D195" s="6" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="B196" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="C196" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="D196" s="6" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="B197" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="D197" s="6" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="B198" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="C198" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="D198" s="6" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="B199" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="C199" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="D199" s="6" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="B200" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="D200" s="6" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="B201" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="D201" s="6" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="B202" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="C202" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="D202" s="6" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="B203" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="C203" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="D203" s="6" t="s">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -7022,7 +7441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
@@ -7910,4 +8329,186 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="30.625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="20.625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="50.625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="20.625" style="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="13" t="s">
+        <v>523</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>525</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>521</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>527</v>
+      </c>
+      <c r="E2" s="11">
+        <v>17817836856</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>528</v>
+      </c>
+      <c r="E3" s="11">
+        <v>17817836856</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="D4" s="17">
+        <v>17817836856</v>
+      </c>
+      <c r="E4" s="11">
+        <v>17817836856</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="12" t="s">
+        <v>529</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="D5" s="14">
+        <v>17817836856</v>
+      </c>
+      <c r="E5" s="11">
+        <v>17817836856</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>539</v>
+      </c>
+      <c r="D6" s="17">
+        <v>17817836856</v>
+      </c>
+      <c r="E6" s="11">
+        <v>17817836856</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>534</v>
+      </c>
+      <c r="E7" s="11">
+        <v>17817836856</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="12" t="s">
+        <v>532</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>533</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>534</v>
+      </c>
+      <c r="E8" s="11">
+        <v>17817836856</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="D9" s="17">
+        <v>17817836856</v>
+      </c>
+      <c r="E9" s="11">
+        <v>17817836856</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="C1:C5"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D8" r:id="rId1"/>
+    <hyperlink ref="D7" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
 </file>
--- a/interest/comic.xlsx
+++ b/interest/comic.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
@@ -1100,10 +1100,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>驭龙日常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>科幻</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2368,12 +2364,16 @@
     <t>手机</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>驭龙日常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2529,11 +2529,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2607,6 +2612,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2641,6 +2647,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2816,21 +2823,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92"/>
+    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="D183" sqref="D183"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="10" width="20.625" style="1" customWidth="1"/>
     <col min="11" max="26" width="9" style="1" customWidth="1"/>
     <col min="27" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2850,7 +2857,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -2870,7 +2877,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -2890,7 +2897,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -2910,7 +2917,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -2930,7 +2937,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -2950,7 +2957,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
@@ -2970,7 +2977,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
@@ -2990,7 +2997,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>41</v>
       </c>
@@ -3010,7 +3017,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>45</v>
       </c>
@@ -3030,7 +3037,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>48</v>
       </c>
@@ -3050,7 +3057,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>50</v>
       </c>
@@ -3070,7 +3077,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>54</v>
       </c>
@@ -3090,7 +3097,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>55</v>
       </c>
@@ -3110,7 +3117,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>61</v>
       </c>
@@ -3130,7 +3137,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>63</v>
       </c>
@@ -3150,7 +3157,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>65</v>
       </c>
@@ -3170,7 +3177,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>71</v>
       </c>
@@ -3190,7 +3197,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>72</v>
       </c>
@@ -3210,7 +3217,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>73</v>
       </c>
@@ -3230,7 +3237,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>74</v>
       </c>
@@ -3250,7 +3257,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>75</v>
       </c>
@@ -3270,7 +3277,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>83</v>
       </c>
@@ -3290,7 +3297,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>84</v>
       </c>
@@ -3310,7 +3317,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>88</v>
       </c>
@@ -3330,7 +3337,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>89</v>
       </c>
@@ -3350,7 +3357,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>92</v>
       </c>
@@ -3370,7 +3377,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>93</v>
       </c>
@@ -3390,7 +3397,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>94</v>
       </c>
@@ -3410,7 +3417,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>97</v>
       </c>
@@ -3430,7 +3437,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>102</v>
       </c>
@@ -3450,7 +3457,7 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>107</v>
       </c>
@@ -3470,7 +3477,7 @@
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>111</v>
       </c>
@@ -3490,7 +3497,7 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>118</v>
       </c>
@@ -3510,7 +3517,7 @@
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>121</v>
       </c>
@@ -3530,7 +3537,7 @@
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>123</v>
       </c>
@@ -3550,7 +3557,7 @@
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>128</v>
       </c>
@@ -3570,7 +3577,7 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>129</v>
       </c>
@@ -3590,7 +3597,7 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>157</v>
       </c>
@@ -3610,7 +3617,7 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>159</v>
       </c>
@@ -3630,7 +3637,7 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>161</v>
       </c>
@@ -3650,7 +3657,7 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>163</v>
       </c>
@@ -3670,7 +3677,7 @@
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>164</v>
       </c>
@@ -3690,7 +3697,7 @@
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>165</v>
       </c>
@@ -3710,7 +3717,7 @@
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>166</v>
       </c>
@@ -3730,7 +3737,7 @@
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>167</v>
       </c>
@@ -3750,7 +3757,7 @@
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>169</v>
       </c>
@@ -3770,7 +3777,7 @@
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>170</v>
       </c>
@@ -3790,7 +3797,7 @@
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>171</v>
       </c>
@@ -3810,7 +3817,7 @@
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>172</v>
       </c>
@@ -3830,7 +3837,7 @@
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>173</v>
       </c>
@@ -3844,7 +3851,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>174</v>
       </c>
@@ -3858,7 +3865,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>175</v>
       </c>
@@ -3872,7 +3879,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>176</v>
       </c>
@@ -3886,7 +3893,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>177</v>
       </c>
@@ -3900,7 +3907,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>180</v>
       </c>
@@ -3914,7 +3921,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>184</v>
       </c>
@@ -3928,7 +3935,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>187</v>
       </c>
@@ -3942,7 +3949,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>191</v>
       </c>
@@ -3956,7 +3963,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>195</v>
       </c>
@@ -3970,7 +3977,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
         <v>198</v>
       </c>
@@ -3984,7 +3991,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
         <v>200</v>
       </c>
@@ -3998,7 +4005,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
         <v>201</v>
       </c>
@@ -4012,7 +4019,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
         <v>204</v>
       </c>
@@ -4026,7 +4033,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
         <v>205</v>
       </c>
@@ -4040,7 +4047,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>207</v>
       </c>
@@ -4054,7 +4061,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>209</v>
       </c>
@@ -4068,7 +4075,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
         <v>210</v>
       </c>
@@ -4082,7 +4089,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
         <v>212</v>
       </c>
@@ -4096,7 +4103,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
         <v>213</v>
       </c>
@@ -4110,7 +4117,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
         <v>215</v>
       </c>
@@ -4124,7 +4131,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
         <v>217</v>
       </c>
@@ -4138,7 +4145,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
         <v>218</v>
       </c>
@@ -4152,7 +4159,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>219</v>
       </c>
@@ -4166,7 +4173,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
         <v>220</v>
       </c>
@@ -4180,7 +4187,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
         <v>221</v>
       </c>
@@ -4194,7 +4201,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
         <v>222</v>
       </c>
@@ -4208,7 +4215,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
         <v>226</v>
       </c>
@@ -4222,7 +4229,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
         <v>227</v>
       </c>
@@ -4236,7 +4243,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
         <v>230</v>
       </c>
@@ -4250,7 +4257,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
         <v>231</v>
       </c>
@@ -4264,7 +4271,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>232</v>
       </c>
@@ -4278,7 +4285,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
         <v>233</v>
       </c>
@@ -4292,7 +4299,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
         <v>235</v>
       </c>
@@ -4306,7 +4313,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
         <v>236</v>
       </c>
@@ -4320,7 +4327,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
         <v>237</v>
       </c>
@@ -4334,7 +4341,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
         <v>238</v>
       </c>
@@ -4348,7 +4355,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>239</v>
       </c>
@@ -4362,7 +4369,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
         <v>240</v>
       </c>
@@ -4376,7 +4383,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
         <v>241</v>
       </c>
@@ -4390,7 +4397,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
         <v>242</v>
       </c>
@@ -4404,7 +4411,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
         <v>243</v>
       </c>
@@ -4418,7 +4425,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
         <v>246</v>
       </c>
@@ -4432,7 +4439,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
         <v>247</v>
       </c>
@@ -4446,9 +4453,9 @@
         <v>203</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
-        <v>250</v>
+        <v>541</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>199</v>
@@ -4460,7 +4467,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
         <v>248</v>
       </c>
@@ -4474,12 +4481,12 @@
         <v>203</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
         <v>249</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>189</v>
@@ -4488,9 +4495,9 @@
         <v>245</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>216</v>
@@ -4502,9 +4509,9 @@
         <v>197</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>211</v>
@@ -4516,9 +4523,9 @@
         <v>197</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>196</v>
@@ -4530,9 +4537,9 @@
         <v>197</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B101" s="6" t="s">
         <v>216</v>
@@ -4544,9 +4551,9 @@
         <v>197</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>196</v>
@@ -4558,9 +4565,9 @@
         <v>197</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B103" s="6" t="s">
         <v>196</v>
@@ -4572,9 +4579,9 @@
         <v>245</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>196</v>
@@ -4586,12 +4593,12 @@
         <v>245</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B105" s="6" t="s">
         <v>259</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>260</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>189</v>
@@ -4600,12 +4607,12 @@
         <v>197</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="B106" s="6" t="s">
         <v>261</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>262</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>189</v>
@@ -4614,23 +4621,23 @@
         <v>197</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>188</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D107" s="6" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>199</v>
@@ -4642,9 +4649,9 @@
         <v>197</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>216</v>
@@ -4656,12 +4663,12 @@
         <v>203</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="B110" s="6" t="s">
         <v>267</v>
-      </c>
-      <c r="B110" s="6" t="s">
-        <v>268</v>
       </c>
       <c r="C110" s="6" t="s">
         <v>189</v>
@@ -4670,9 +4677,9 @@
         <v>197</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>211</v>
@@ -4684,12 +4691,12 @@
         <v>197</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B112" s="6" t="s">
         <v>270</v>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>271</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>228</v>
@@ -4698,9 +4705,9 @@
         <v>197</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B113" s="6" t="s">
         <v>202</v>
@@ -4712,9 +4719,9 @@
         <v>197</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B114" s="6" t="s">
         <v>188</v>
@@ -4726,9 +4733,9 @@
         <v>197</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B115" s="6" t="s">
         <v>216</v>
@@ -4740,9 +4747,9 @@
         <v>197</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B116" s="6" t="s">
         <v>202</v>
@@ -4754,9 +4761,9 @@
         <v>197</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B117" s="6" t="s">
         <v>211</v>
@@ -4768,12 +4775,12 @@
         <v>197</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C118" s="6" t="s">
         <v>228</v>
@@ -4782,12 +4789,12 @@
         <v>245</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>228</v>
@@ -4796,9 +4803,9 @@
         <v>245</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>199</v>
@@ -4810,1172 +4817,1170 @@
         <v>245</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B121" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="B121" s="6" t="s">
+      <c r="C121" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="C121" s="6" t="s">
+      <c r="D121" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="D121" s="6" t="s">
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="6" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="122" spans="1:4">
-      <c r="A122" s="6" t="s">
+      <c r="B122" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="B122" s="6" t="s">
+      <c r="C122" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D122" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="C122" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="D122" s="6" t="s">
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="6" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="123" spans="1:4">
-      <c r="A123" s="6" t="s">
+      <c r="B123" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="B123" s="6" t="s">
+      <c r="C123" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="C123" s="6" t="s">
+      <c r="D123" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="D123" s="6" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
-      <c r="A124" s="6" t="s">
+      <c r="B124" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="B124" s="6" t="s">
+      <c r="C124" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="C124" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="D124" s="6" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
-      <c r="A125" s="6" t="s">
+      <c r="B125" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="D125" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="B125" s="6" t="s">
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="C125" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="D125" s="6" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
-      <c r="A126" s="6" t="s">
+      <c r="B126" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="B126" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="C126" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="D126" s="6" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
-      <c r="A127" s="6" t="s">
+      <c r="B127" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="B127" s="6" t="s">
+      <c r="C127" s="6" t="s">
         <v>297</v>
-      </c>
-      <c r="C127" s="6" t="s">
-        <v>298</v>
       </c>
       <c r="D127" s="6" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="B128" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="B128" s="6" t="s">
+      <c r="C128" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="C128" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="D128" s="6" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
-      <c r="A129" s="6" t="s">
+      <c r="B129" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="D129" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="B129" s="6" t="s">
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="C129" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="D129" s="6" t="s">
+      <c r="B130" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="B131" s="6" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="130" spans="1:4">
-      <c r="A130" s="6" t="s">
+      <c r="C131" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="B133" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="B130" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="C130" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="D130" s="6" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="A131" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="B131" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="C131" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="D131" s="6" t="s">
+      <c r="C133" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="B140" s="6" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="132" spans="1:4">
-      <c r="A132" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="B132" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="C132" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="D132" s="6" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
-      <c r="A133" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="B133" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="C133" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="D133" s="6" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
-      <c r="A134" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="B134" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="C134" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="D134" s="6" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
-      <c r="A135" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="B135" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="C135" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="D135" s="6" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
-      <c r="A136" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="B136" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="C136" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="D136" s="6" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
-      <c r="A137" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="B137" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="C137" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="D137" s="6" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
-      <c r="A138" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="B138" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="C138" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="D138" s="6" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
-      <c r="A139" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="B139" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="C139" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="D139" s="6" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
-      <c r="A140" s="6" t="s">
+      <c r="C140" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="B140" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="C140" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="D140" s="6" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
-      <c r="A141" s="6" t="s">
+      <c r="B141" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="B141" s="6" t="s">
+      <c r="C141" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="C141" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="D141" s="6" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
-      <c r="A142" s="6" t="s">
+      <c r="B142" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="B142" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="C142" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="D142" s="6" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
-      <c r="A143" s="6" t="s">
+      <c r="B143" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="B143" s="6" t="s">
+      <c r="C143" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="C143" s="6" t="s">
+      <c r="D143" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="D143" s="6" t="s">
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" s="6" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="144" spans="1:4">
-      <c r="A144" s="6" t="s">
+      <c r="B144" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="B144" s="6" t="s">
+      <c r="C144" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="D144" s="6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="C144" s="6" t="s">
+      <c r="B145" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="D145" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="D144" s="6" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
-      <c r="A145" s="6" t="s">
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="B146" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="B145" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="C145" s="6" t="s">
+      <c r="C146" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="D146" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="D145" s="6" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
-      <c r="A146" s="6" t="s">
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="B146" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="C146" s="6" t="s">
+      <c r="B147" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="D147" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="D146" s="6" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
-      <c r="A147" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="B147" s="6" t="s">
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="C147" s="6" t="s">
+      <c r="B148" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="D148" s="6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="D149" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="D147" s="6" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
-      <c r="A148" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="B148" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="C148" s="6" t="s">
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="D150" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="D148" s="6" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
-      <c r="A149" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="B149" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="C149" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="D149" s="6" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
-      <c r="A150" s="6" t="s">
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="B150" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="C150" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="D150" s="6" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
-      <c r="A151" s="6" t="s">
+      <c r="B151" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="B151" s="6" t="s">
+      <c r="C151" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="C151" s="6" t="s">
+      <c r="D151" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="D151" s="6" t="s">
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" s="7" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="152" spans="1:4">
-      <c r="A152" s="7" t="s">
+      <c r="B152" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="B152" s="6" t="s">
+      <c r="C152" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="D152" s="6" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="C152" s="6" t="s">
+      <c r="B153" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="D153" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="D152" s="6" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
-      <c r="A153" s="6" t="s">
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="B153" s="6" t="s">
+      <c r="B154" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="C154" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="C153" s="6" t="s">
+      <c r="D154" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="D153" s="6" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
-      <c r="A154" s="6" t="s">
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="B154" s="6" t="s">
+      <c r="B155" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="C155" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="C154" s="6" t="s">
+      <c r="D155" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="D154" s="6" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
-      <c r="A155" s="6" t="s">
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="B155" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="C155" s="6" t="s">
+      <c r="B156" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="D156" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="D155" s="6" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
-      <c r="A156" s="6" t="s">
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="B156" s="6" t="s">
+      <c r="B157" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="C157" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="C156" s="6" t="s">
+      <c r="D157" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="D156" s="6" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
-      <c r="A157" s="6" t="s">
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B158" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="B157" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="C157" s="6" t="s">
+      <c r="C158" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="D158" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="D157" s="6" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
-      <c r="A158" s="1" t="s">
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="B158" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="C158" s="6" t="s">
+      <c r="B159" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="D159" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="D158" s="6" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
-      <c r="A159" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="B159" s="6" t="s">
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="C159" s="6" t="s">
+      <c r="B160" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="D160" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="D159" s="6" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
-      <c r="A160" s="6" t="s">
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="D161" s="6" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="D162" s="6" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B163" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="D164" s="6" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="D165" s="6" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B166" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="D166" s="6" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="D167" s="6" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="B168" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="B160" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="C160" s="6" t="s">
+      <c r="C168" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="D168" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="D160" s="6" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4">
-      <c r="A161" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="B161" s="6" t="s">
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="B169" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="C169" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="C161" s="6" t="s">
+      <c r="D169" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="D161" s="6" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
-      <c r="A162" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="B162" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="C162" s="6" t="s">
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="B170" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="D170" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="D162" s="6" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4">
-      <c r="A163" s="1" t="s">
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="B171" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="D171" s="6" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="B172" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="D172" s="6" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="B173" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="D173" s="6" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="B174" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="B163" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="C163" s="6" t="s">
+      <c r="C174" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="D174" s="6" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="B175" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="D175" s="6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="B176" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="D176" s="6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="B177" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="D177" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="D163" s="6" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4">
-      <c r="A164" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="B164" s="6" t="s">
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="B178" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="C178" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="C164" s="6" t="s">
+      <c r="D178" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="D164" s="6" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
-      <c r="A165" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="B165" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="C165" s="6" t="s">
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="B179" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="D179" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="D165" s="6" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4">
-      <c r="A166" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="B166" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="C166" s="6" t="s">
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="B180" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="D180" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="D166" s="6" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4">
-      <c r="A167" s="9" t="s">
-        <v>374</v>
-      </c>
-      <c r="B167" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="C167" s="6" t="s">
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="B181" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="D181" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="D167" s="6" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
-      <c r="A168" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="B168" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="C168" s="6" t="s">
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="B182" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="D182" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="D168" s="6" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4">
-      <c r="A169" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="B169" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="C169" s="6" t="s">
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="B183" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="D183" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="B184" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="C184" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="D184" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="D169" s="6" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4">
-      <c r="A170" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="B170" s="6" t="s">
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="B185" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="C185" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="C170" s="6" t="s">
+      <c r="D185" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="D170" s="6" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4">
-      <c r="A171" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="B171" s="6" t="s">
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="B186" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="C186" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="D186" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="B187" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="C187" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="C171" s="6" t="s">
+      <c r="D187" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="D171" s="6" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4">
-      <c r="A172" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="B172" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="C172" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="D172" s="6" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4">
-      <c r="A173" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="B173" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="C173" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="D173" s="6" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4">
-      <c r="A174" s="6" t="s">
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="B188" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="C188" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="B174" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="C174" s="6" t="s">
+      <c r="D188" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="D174" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4">
-      <c r="A175" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="B175" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="C175" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="D175" s="6" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4">
-      <c r="A176" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="B176" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="C176" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="D176" s="6" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4">
-      <c r="A177" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="B177" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="C177" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="D177" s="6" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4">
-      <c r="A178" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="B178" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="C178" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="D178" s="6" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4">
-      <c r="A179" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="B179" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="C179" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="D179" s="6" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4">
-      <c r="A180" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="B180" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="C180" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="D180" s="6" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4">
-      <c r="A181" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="B181" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="C181" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="D181" s="6" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4">
-      <c r="A182" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="B182" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="C182" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="D182" s="6" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4">
-      <c r="A183" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="B183" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="C183" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="D183" s="6" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4">
-      <c r="A184" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="B184" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="C184" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="D184" s="6" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4">
-      <c r="A185" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="B185" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="C185" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="D185" s="6" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4">
-      <c r="A186" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="B186" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="C186" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="D186" s="6" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4">
-      <c r="A187" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="B187" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="C187" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="D187" s="6" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4">
-      <c r="A188" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="B188" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="C188" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="D188" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4">
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C189" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="D189" s="6" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="B190" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="C190" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="D190" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="D189" s="6" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4">
-      <c r="A190" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="B190" s="6" t="s">
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="B191" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="C191" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="C190" s="6" t="s">
+      <c r="D191" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="D190" s="6" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4">
-      <c r="A191" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="B191" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="C191" s="6" t="s">
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="B192" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="D192" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="D191" s="6" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4">
-      <c r="A192" s="6" t="s">
-        <v>478</v>
-      </c>
-      <c r="B192" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="C192" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="D192" s="6" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4">
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="B193" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="B193" s="6" t="s">
+      <c r="C193" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="C193" s="6" t="s">
+      <c r="D193" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="D193" s="6" t="s">
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194" s="6" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="194" spans="1:4">
-      <c r="A194" s="6" t="s">
+      <c r="B194" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="B194" s="6" t="s">
+      <c r="C194" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="D194" s="6" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="C194" s="6" t="s">
-        <v>493</v>
-      </c>
-      <c r="D194" s="6" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4">
-      <c r="A195" s="6" t="s">
+      <c r="B195" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="B195" s="6" t="s">
+      <c r="C195" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="C195" s="6" t="s">
+      <c r="D195" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="D195" s="6" t="s">
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A196" s="6" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="196" spans="1:4">
-      <c r="A196" s="6" t="s">
+      <c r="B196" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="B196" s="6" t="s">
+      <c r="C196" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="D196" s="6" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A197" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="C196" s="6" t="s">
+      <c r="B197" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="D197" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="D196" s="6" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4">
-      <c r="A197" s="6" t="s">
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A198" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="B198" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="B197" s="6" t="s">
-        <v>504</v>
-      </c>
-      <c r="C197" s="6" t="s">
+      <c r="C198" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="D198" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="D197" s="6" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4">
-      <c r="A198" s="6" t="s">
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A199" s="6" t="s">
         <v>505</v>
       </c>
-      <c r="B198" s="6" t="s">
-        <v>504</v>
-      </c>
-      <c r="C198" s="6" t="s">
+      <c r="B199" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="C199" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="D199" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="D198" s="6" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4">
-      <c r="A199" s="6" t="s">
-        <v>506</v>
-      </c>
-      <c r="B199" s="6" t="s">
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A200" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="C199" s="6" t="s">
+      <c r="B200" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="D200" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="D199" s="6" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4">
-      <c r="A200" s="6" t="s">
-        <v>508</v>
-      </c>
-      <c r="B200" s="6" t="s">
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A201" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="C200" s="6" t="s">
+      <c r="B201" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="D201" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="D200" s="6" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4">
-      <c r="A201" s="6" t="s">
-        <v>510</v>
-      </c>
-      <c r="B201" s="6" t="s">
-        <v>511</v>
-      </c>
-      <c r="C201" s="6" t="s">
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A202" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="D201" s="6" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4">
-      <c r="A202" s="6" t="s">
+      <c r="B202" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="B202" s="6" t="s">
+      <c r="C202" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="D202" s="6" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A203" s="6" t="s">
         <v>514</v>
       </c>
-      <c r="C202" s="6" t="s">
+      <c r="B203" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="C203" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="D203" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="D202" s="6" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4">
-      <c r="A203" s="6" t="s">
-        <v>515</v>
-      </c>
-      <c r="B203" s="6" t="s">
-        <v>516</v>
-      </c>
-      <c r="C203" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="D203" s="6" t="s">
-        <v>500</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:D3">
-    <filterColumn colId="1"/>
-  </autoFilter>
+  <autoFilter ref="B1:D3"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5983,21 +5988,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J81"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="10" width="20.625" style="1" customWidth="1"/>
     <col min="11" max="26" width="9" style="1" customWidth="1"/>
     <col min="27" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>21</v>
       </c>
@@ -6017,7 +6022,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -6037,7 +6042,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
@@ -6057,7 +6062,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>32</v>
       </c>
@@ -6077,7 +6082,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
@@ -6097,7 +6102,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
@@ -6117,7 +6122,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
@@ -6137,7 +6142,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>42</v>
       </c>
@@ -6157,7 +6162,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>43</v>
       </c>
@@ -6177,7 +6182,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>52</v>
       </c>
@@ -6197,7 +6202,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>57</v>
       </c>
@@ -6217,7 +6222,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>59</v>
       </c>
@@ -6237,7 +6242,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>64</v>
       </c>
@@ -6257,7 +6262,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>67</v>
       </c>
@@ -6277,7 +6282,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>69</v>
       </c>
@@ -6297,7 +6302,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>70</v>
       </c>
@@ -6317,7 +6322,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>76</v>
       </c>
@@ -6337,7 +6342,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>77</v>
       </c>
@@ -6357,7 +6362,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>78</v>
       </c>
@@ -6377,7 +6382,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>79</v>
       </c>
@@ -6397,7 +6402,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>80</v>
       </c>
@@ -6417,7 +6422,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>82</v>
       </c>
@@ -6437,7 +6442,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>85</v>
       </c>
@@ -6457,7 +6462,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>86</v>
       </c>
@@ -6477,7 +6482,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>87</v>
       </c>
@@ -6497,7 +6502,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>90</v>
       </c>
@@ -6517,7 +6522,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>91</v>
       </c>
@@ -6537,7 +6542,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>95</v>
       </c>
@@ -6557,7 +6562,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>96</v>
       </c>
@@ -6577,7 +6582,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>98</v>
       </c>
@@ -6597,7 +6602,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>100</v>
       </c>
@@ -6617,7 +6622,7 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>101</v>
       </c>
@@ -6637,7 +6642,7 @@
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>105</v>
       </c>
@@ -6657,7 +6662,7 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>106</v>
       </c>
@@ -6677,7 +6682,7 @@
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>108</v>
       </c>
@@ -6697,7 +6702,7 @@
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>110</v>
       </c>
@@ -6717,7 +6722,7 @@
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>112</v>
       </c>
@@ -6737,7 +6742,7 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>113</v>
       </c>
@@ -6757,7 +6762,7 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>114</v>
       </c>
@@ -6777,7 +6782,7 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>115</v>
       </c>
@@ -6797,7 +6802,7 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>116</v>
       </c>
@@ -6817,7 +6822,7 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>117</v>
       </c>
@@ -6837,7 +6842,7 @@
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>120</v>
       </c>
@@ -6857,7 +6862,7 @@
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>124</v>
       </c>
@@ -6877,7 +6882,7 @@
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>125</v>
       </c>
@@ -6897,7 +6902,7 @@
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>126</v>
       </c>
@@ -6917,7 +6922,7 @@
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>130</v>
       </c>
@@ -6937,7 +6942,7 @@
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>131</v>
       </c>
@@ -6957,7 +6962,7 @@
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>132</v>
       </c>
@@ -6977,7 +6982,7 @@
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>133</v>
       </c>
@@ -6997,7 +7002,7 @@
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>134</v>
       </c>
@@ -7011,7 +7016,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>135</v>
       </c>
@@ -7025,7 +7030,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>136</v>
       </c>
@@ -7039,7 +7044,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>137</v>
       </c>
@@ -7053,7 +7058,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>138</v>
       </c>
@@ -7067,7 +7072,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>139</v>
       </c>
@@ -7081,7 +7086,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>141</v>
       </c>
@@ -7095,7 +7100,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>142</v>
       </c>
@@ -7109,7 +7114,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>143</v>
       </c>
@@ -7123,7 +7128,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>144</v>
       </c>
@@ -7137,7 +7142,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>145</v>
       </c>
@@ -7151,7 +7156,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
         <v>146</v>
       </c>
@@ -7165,7 +7170,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
         <v>147</v>
       </c>
@@ -7179,7 +7184,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
         <v>148</v>
       </c>
@@ -7193,7 +7198,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
         <v>149</v>
       </c>
@@ -7207,7 +7212,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>150</v>
       </c>
@@ -7221,7 +7226,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>151</v>
       </c>
@@ -7235,7 +7240,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
         <v>152</v>
       </c>
@@ -7249,7 +7254,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
         <v>153</v>
       </c>
@@ -7263,7 +7268,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
         <v>154</v>
       </c>
@@ -7277,7 +7282,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
         <v>155</v>
       </c>
@@ -7291,7 +7296,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
         <v>156</v>
       </c>
@@ -7305,7 +7310,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
         <v>178</v>
       </c>
@@ -7319,7 +7324,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
         <v>223</v>
       </c>
@@ -7333,26 +7338,26 @@
         <v>197</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="B75" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="B75" s="6" t="s">
-        <v>300</v>
-      </c>
       <c r="C75" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="B76" s="6" t="s">
         <v>312</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>313</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>228</v>
@@ -7361,74 +7366,74 @@
         <v>197</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="B77" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="B77" s="6" t="s">
-        <v>315</v>
-      </c>
       <c r="C77" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="B78" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="B78" s="6" t="s">
-        <v>394</v>
-      </c>
       <c r="C78" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="B80" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="C80" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="C80" s="6" t="s">
+      <c r="D80" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="D80" s="6" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C81" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="D81" s="6" t="s">
         <v>416</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -7438,21 +7443,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="20.625" style="1" customWidth="1"/>
     <col min="10" max="25" width="9" style="1" customWidth="1"/>
     <col min="26" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
@@ -7469,15 +7474,15 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>390</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -7486,12 +7491,12 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -7503,9 +7508,9 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>46</v>
@@ -7520,9 +7525,9 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>162</v>
@@ -7537,9 +7542,9 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>199</v>
@@ -7554,15 +7559,15 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -7571,15 +7576,15 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>421</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -7588,15 +7593,15 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>423</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -7605,15 +7610,15 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>426</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -7622,15 +7627,15 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>428</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -7639,15 +7644,15 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>430</v>
-      </c>
       <c r="C12" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -7656,15 +7661,15 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -7673,15 +7678,15 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>433</v>
-      </c>
       <c r="C14" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -7690,15 +7695,15 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>435</v>
-      </c>
       <c r="C15" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -7707,15 +7712,15 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>437</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>438</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -7724,15 +7729,15 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -7741,15 +7746,15 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>441</v>
-      </c>
       <c r="C18" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -7758,15 +7763,15 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>443</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -7775,15 +7780,15 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -7792,15 +7797,15 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>446</v>
-      </c>
       <c r="C21" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -7809,15 +7814,15 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -7826,15 +7831,15 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>449</v>
-      </c>
       <c r="C23" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -7843,15 +7848,15 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -7860,15 +7865,15 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -7877,15 +7882,15 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -7894,15 +7899,15 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -7911,15 +7916,15 @@
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>456</v>
-      </c>
       <c r="C28" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -7928,15 +7933,15 @@
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>458</v>
-      </c>
       <c r="C29" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -7945,15 +7950,15 @@
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>460</v>
-      </c>
       <c r="C30" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -7962,15 +7967,15 @@
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -7979,15 +7984,15 @@
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -7996,15 +8001,15 @@
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>464</v>
-      </c>
       <c r="C33" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -8013,15 +8018,15 @@
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -8030,15 +8035,15 @@
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -8047,15 +8052,15 @@
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>468</v>
-      </c>
       <c r="C36" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -8064,15 +8069,15 @@
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>470</v>
-      </c>
       <c r="C37" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -8081,15 +8086,15 @@
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -8098,15 +8103,15 @@
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -8115,15 +8120,15 @@
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -8132,15 +8137,15 @@
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -8149,15 +8154,15 @@
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>476</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>477</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -8166,15 +8171,15 @@
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>478</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>479</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -8183,15 +8188,15 @@
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -8200,15 +8205,15 @@
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -8217,15 +8222,15 @@
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="C46" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -8234,15 +8239,15 @@
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -8251,15 +8256,15 @@
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -8268,15 +8273,15 @@
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -8285,15 +8290,15 @@
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>488</v>
-      </c>
       <c r="C50" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -8302,26 +8307,26 @@
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="B51" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="6" t="s">
-        <v>490</v>
-      </c>
       <c r="B52" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
   </sheetData>
@@ -8332,14 +8337,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30.625" style="11" customWidth="1"/>
     <col min="2" max="2" width="12.625" style="11" customWidth="1"/>
@@ -8348,66 +8353,66 @@
     <col min="5" max="5" width="20.625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>524</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>520</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>521</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>523</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>525</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>521</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>522</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E2" s="11">
         <v>17817836856</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E3" s="11">
         <v>17817836856</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D4" s="17">
         <v>17817836856</v>
@@ -8416,15 +8421,15 @@
         <v>17817836856</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D5" s="14">
         <v>17817836856</v>
@@ -8433,15 +8438,15 @@
         <v>17817836856</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D6" s="17">
         <v>17817836856</v>
@@ -8450,49 +8455,49 @@
         <v>17817836856</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E7" s="11">
         <v>17817836856</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
+        <v>531</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>532</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>541</v>
-      </c>
-      <c r="C8" s="12" t="s">
+      <c r="D8" s="15" t="s">
         <v>533</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>534</v>
       </c>
       <c r="E8" s="11">
         <v>17817836856</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>536</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>541</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>537</v>
       </c>
       <c r="D9" s="17">
         <v>17817836856</v>

--- a/interest/comic.xlsx
+++ b/interest/comic.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="554">
   <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2366,6 +2366,54 @@
   </si>
   <si>
     <t>驭龙日常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一念永恒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修仙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙风剑雨录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄幻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独步逍遥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄幻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观海策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2824,10 +2872,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J203"/>
+  <dimension ref="A1:J207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="D183" sqref="D183"/>
+    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
+      <selection activeCell="D207" sqref="D207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5977,6 +6025,62 @@
       </c>
       <c r="D203" s="6" t="s">
         <v>499</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A204" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="B204" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="D204" s="6" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A205" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="B205" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="C205" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="D205" s="6" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A206" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="B206" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="C206" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="D206" s="6" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A207" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="B207" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="C207" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="D207" s="6" t="s">
+        <v>549</v>
       </c>
     </row>
   </sheetData>
